--- a/data/trans_camb/P68-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P68-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>10.56674908262476</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-7.623604284559707</v>
+        <v>-7.623604284559709</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.493362197409288</v>
@@ -664,7 +664,7 @@
         <v>7.311771705336439</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-4.429620272370744</v>
+        <v>-4.429620272370746</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.362353767833527</v>
+        <v>-5.172198640894294</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8656006033456516</v>
+        <v>1.252047188088344</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.92119828646461</v>
+        <v>-15.14190627640942</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.062018785279259</v>
+        <v>-7.874728871344966</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-11.22647435575333</v>
+        <v>-10.48155676677423</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-8.900414314916947</v>
+        <v>-9.106513740235975</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.890709242925405</v>
+        <v>-4.683627960373165</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03411394251228757</v>
+        <v>-0.6378733988763697</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-10.79936876115245</v>
+        <v>-11.44820372801378</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.44406064446249</v>
+        <v>11.75768723519263</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.27788304200291</v>
+        <v>21.25718756113997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.549810947441148</v>
+        <v>1.11078266590246</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.08418364737222</v>
+        <v>13.31995977079035</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.36739881337714</v>
+        <v>13.87121851221126</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.22320671297504</v>
+        <v>13.53873002764395</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.560733928582138</v>
+        <v>8.214321378225691</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>15.83769978110563</v>
+        <v>15.95716169843546</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.958646136961472</v>
+        <v>2.304687193298236</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3561905723278887</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2569812107854228</v>
+        <v>-0.2569812107854229</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.0990689941681028</v>
@@ -769,7 +769,7 @@
         <v>0.2576487512789168</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1560888629746384</v>
+        <v>-0.1560888629746385</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1772952136489057</v>
+        <v>-0.167934063398008</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.01305887426651193</v>
+        <v>0.04120607965872267</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.480749609259649</v>
+        <v>-0.4799092510061117</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2356261512318382</v>
+        <v>-0.2665143573530488</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3924596840887523</v>
+        <v>-0.3755034578010571</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3012574761963195</v>
+        <v>-0.3100041969681861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1595972542224981</v>
+        <v>-0.1573973887059757</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.008247637548825418</v>
+        <v>-0.03138118656663835</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3536969301446705</v>
+        <v>-0.3651730999133357</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.426973756730038</v>
+        <v>0.4423800239355177</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8019239652772185</v>
+        <v>0.7963462347497235</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.03435502531880465</v>
+        <v>0.03986527655094711</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6791883931332564</v>
+        <v>0.6355986908254789</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.651555169831238</v>
+        <v>0.6618280328942481</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6466538911956122</v>
+        <v>0.6689034679829177</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3416169231337323</v>
+        <v>0.3150813000056866</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6103959351379192</v>
+        <v>0.5958835685554504</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1172618228055202</v>
+        <v>0.0925589198127926</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.9225992743742695</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-4.228916726507592</v>
+        <v>-4.228916726507598</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.425267602588871</v>
@@ -869,7 +869,7 @@
         <v>-1.364555822904145</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.473750877219095</v>
+        <v>3.473750877219098</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.04672179157975132</v>
@@ -878,7 +878,7 @@
         <v>-1.487395049204221</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-1.395553467492486</v>
+        <v>-1.395553467492477</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.83532839581009</v>
+        <v>-5.027215886895982</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.043680816059308</v>
+        <v>-5.139148374125964</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.921279132745672</v>
+        <v>-7.76338120777628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.691281446107938</v>
+        <v>-3.019920851048162</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.361728170889277</v>
+        <v>-6.329063454413203</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.7599999887643881</v>
+        <v>-0.5910127294279951</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.176169286339761</v>
+        <v>-2.847626033903137</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.630243052421163</v>
+        <v>-4.438679205878727</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.062753520279427</v>
+        <v>-4.058402365024851</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.257761247025066</v>
+        <v>3.239378018541419</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.973127588671387</v>
+        <v>2.929977473352019</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.4357959827948645</v>
+        <v>-0.05626062542665544</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.346950268856932</v>
+        <v>7.425257321289834</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.990184106983504</v>
+        <v>2.864581890737663</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.589276622188152</v>
+        <v>7.302384255347739</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.363356876530181</v>
+        <v>2.99602096575185</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.77416399450768</v>
+        <v>1.68987038659777</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.169779997949242</v>
+        <v>1.193716430245613</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.03576386719292721</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1639307772915197</v>
+        <v>-0.1639307772915199</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.118065021009444</v>
@@ -974,7 +974,7 @@
         <v>-0.06642826207209582</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1691064812240315</v>
+        <v>0.1691064812240317</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.001946613206913028</v>
@@ -983,7 +983,7 @@
         <v>-0.06197071535101011</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.05814423460489662</v>
+        <v>-0.05814423460489627</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1745281817510709</v>
+        <v>-0.1807075830452707</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1760777650994843</v>
+        <v>-0.1845555364054237</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2834006582222491</v>
+        <v>-0.2851466863102838</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1211189651710434</v>
+        <v>-0.1290581146401658</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.274812576204725</v>
+        <v>-0.2749286750683183</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03671728198259317</v>
+        <v>-0.02527643059249688</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1240500361034343</v>
+        <v>-0.1126171947438643</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1797831558225131</v>
+        <v>-0.1740754810418265</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1588263772120868</v>
+        <v>-0.1584569734641633</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1406924024761798</v>
+        <v>0.1359595093127734</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1195446693532092</v>
+        <v>0.1217299189061416</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.01798071012604158</v>
+        <v>-0.004011968555554891</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4000840842014187</v>
+        <v>0.4012149290152165</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1630023435983598</v>
+        <v>0.1654896905197805</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4392678724742372</v>
+        <v>0.3996072868768582</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1504390914245824</v>
+        <v>0.13514088384866</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.07929870673642705</v>
+        <v>0.07612499823931045</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.05526739536621528</v>
+        <v>0.05857071592756143</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.1757225618062297</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.211330235480033</v>
+        <v>-2.211330235480036</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.240442873538709</v>
@@ -1083,7 +1083,7 @@
         <v>2.17647455382122</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.14974086998435</v>
+        <v>-1.149740869984353</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-3.095618288417723</v>
@@ -1092,7 +1092,7 @@
         <v>1.113042311983925</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.390725832552697</v>
+        <v>-1.3907258325527</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.411815422940116</v>
+        <v>-9.580172391427668</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.023140869513885</v>
+        <v>-5.898451124972484</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.740765853578885</v>
+        <v>-7.53536443534786</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.547588392169208</v>
+        <v>-9.671580941631284</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.844340017408253</v>
+        <v>-4.426273568969406</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.316881094237503</v>
+        <v>-6.997422980680698</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.230544633156147</v>
+        <v>-7.831055923274858</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.718395956610598</v>
+        <v>-3.398231053916192</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.638952677133974</v>
+        <v>-5.221456110547728</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.043169055062029</v>
+        <v>2.108812657109914</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.552896686110791</v>
+        <v>6.070352852058238</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.705924089720745</v>
+        <v>3.8841386691733</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.996173746984796</v>
+        <v>4.850307061937708</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.7041872183322</v>
+        <v>9.730841736393252</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.65178601288626</v>
+        <v>4.515870457998671</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.930015714899947</v>
+        <v>1.436794061818375</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.736743614256136</v>
+        <v>5.895832568995631</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.474223776070475</v>
+        <v>2.917329311762187</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.009577098780570477</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1205202558167101</v>
+        <v>-0.1205202558167102</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1020226161658502</v>
@@ -1188,7 +1188,7 @@
         <v>0.09910970309567502</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.05235552883494551</v>
+        <v>-0.05235552883494565</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1558540905392489</v>
@@ -1197,7 +1197,7 @@
         <v>0.05603798049488369</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.07001842269536693</v>
+        <v>-0.07001842269536707</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.449199668485119</v>
+        <v>-0.4554446302300237</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2976966391390989</v>
+        <v>-0.2926879188659205</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3814997606831145</v>
+        <v>-0.3600745899583378</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3963621316189393</v>
+        <v>-0.388261950030975</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1882814425807103</v>
+        <v>-0.1767720017089056</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2654973639133533</v>
+        <v>-0.2714135446937614</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3445054753290072</v>
+        <v>-0.3531695513880602</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1623063819978673</v>
+        <v>-0.1507716398007125</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2620034104169237</v>
+        <v>-0.2376416245944764</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.13969039973507</v>
+        <v>0.1395128921110488</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3489717691944704</v>
+        <v>0.3728913910298084</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2255543892047974</v>
+        <v>0.2545450925478149</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2624834006870956</v>
+        <v>0.2619594283190981</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4638975076593976</v>
+        <v>0.531261948381867</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2584679010078272</v>
+        <v>0.2488999177823067</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1011612066471028</v>
+        <v>0.08286912391327238</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3217104016771717</v>
+        <v>0.3474335620089843</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1366707108114551</v>
+        <v>0.1740514239990119</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.2263153002856122</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-4.736293048249888</v>
+        <v>-4.73629304824989</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.214855924634797</v>
@@ -1297,7 +1297,7 @@
         <v>-0.4829497504034441</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.559793372943891</v>
+        <v>1.559793372943888</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.6155898026886847</v>
@@ -1306,7 +1306,7 @@
         <v>-0.5745625174438274</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-2.2669043398791</v>
+        <v>-2.266904339879097</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.588018263436668</v>
+        <v>-4.469941879806686</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.22936108792982</v>
+        <v>-3.044928522524335</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.529155246505677</v>
+        <v>-7.696833767695672</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.943241427013713</v>
+        <v>-2.572779873562471</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.384684805866085</v>
+        <v>-4.054035407080643</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.644541967767396</v>
+        <v>-1.578424126335882</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.071573010149323</v>
+        <v>-2.72626051966753</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.877055698868277</v>
+        <v>-2.971393389305246</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.332377546315125</v>
+        <v>-4.351279240138675</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.537306876678664</v>
+        <v>1.432016444803268</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.965431748682242</v>
+        <v>2.980707351038678</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.719647899428219</v>
+        <v>-1.79631328346534</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.139467856912583</v>
+        <v>5.038166846511689</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.155836484597756</v>
+        <v>3.343838038286143</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.775998610436478</v>
+        <v>4.669765331672789</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.753523077510284</v>
+        <v>1.862336377088241</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.745817838180196</v>
+        <v>1.728742459176523</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.2782425588885351</v>
+        <v>-0.1908579815025744</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.009064426438474209</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1896989725075483</v>
+        <v>-0.1896989725075484</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.05617502109220734</v>
@@ -1402,7 +1402,7 @@
         <v>-0.02233162950869694</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07212495230736807</v>
+        <v>0.07212495230736794</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.0258681011547875</v>
@@ -1411,7 +1411,7 @@
         <v>-0.0241440668056399</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.0952590678339663</v>
+        <v>-0.09525906783396619</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1751891889052263</v>
+        <v>-0.172416068444243</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1248921977751098</v>
+        <v>-0.1158764036265135</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2886633231651039</v>
+        <v>-0.2919534094179202</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1228940833636711</v>
+        <v>-0.1085344350076775</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1874566462791937</v>
+        <v>-0.1752467498817809</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.0695784629851089</v>
+        <v>-0.06657662497184409</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.122597321554675</v>
+        <v>-0.1105785474581776</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1152875753683243</v>
+        <v>-0.1199437261962899</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1705314893239034</v>
+        <v>-0.1749828510289644</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.06642946268398589</v>
+        <v>0.05852462010044767</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.123390291252688</v>
+        <v>0.1258067407337927</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.07385913852294745</v>
+        <v>-0.07281689344220804</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2520519959399189</v>
+        <v>0.2532797580153408</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1576040679476396</v>
+        <v>0.1684445777045128</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2401160038366829</v>
+        <v>0.2409842717837394</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07839318772154728</v>
+        <v>0.08288084184585909</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.07711593010796174</v>
+        <v>0.07544976761671672</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.01165655461552297</v>
+        <v>-0.008564783089173682</v>
       </c>
     </row>
     <row r="28">
